--- a/biology/Zoologie/Etienneus_africanus/Etienneus_africanus.xlsx
+++ b/biology/Zoologie/Etienneus_africanus/Etienneus_africanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Etienneus africanus, unique représentant du genre Etienneus, est une espèce d'uropyges de la famille des Thelyphonidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Sud du Sénégal, en Gambie, en Guinée-Bissau et  dans l'Ouest de la Guinée[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Sud du Sénégal, en Gambie, en Guinée-Bissau et  dans l'Ouest de la Guinée,.
 C'est la seule espèce d'uropyges africaine.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 30 mm et les femelles jusqu'à 35 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 30 mm et les femelles jusqu'à 35 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Afrique.
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hentschel, 1899 : Zur geographischen Verbreitung der Thelyphoniden. Zoologischer Anzeiger, vol. 22, p. 429–431 (texte intégral).
 Heurtault, 1984 : Identité d’Hypoctonus africanus Hentschel et d’Hypoctonus clarki Cooke et Shadab (Arachnides: Uropyges). Revue Arachnologique, vol. 5, p. 115–123.</t>
